--- a/WeeklyReport.xlsx
+++ b/WeeklyReport.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="09-01-2017 - 15-01-2017" sheetId="2" r:id="rId2"/>
+    <sheet name="16-01-2017 - 22-01-2017" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>BÁO CÁO TIẾN ĐỘ</t>
   </si>
@@ -61,13 +62,25 @@
   </si>
   <si>
     <t>14/01/2017 - 15/01/2017</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cách giao tiếp với Module Sim808</t>
+  </si>
+  <si>
+    <t>18/01/2017 - 20/01/2017</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cách giao tiếp với Module Sim808 tích hợp với mạch Arduino Uno</t>
+  </si>
+  <si>
+    <t>* Khó khăn: Vẫn chưa giao tiếp được với Module tích hợp vào với mạch Arduino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +96,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -142,30 +162,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,37 +486,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -515,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -528,66 +554,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
@@ -598,108 +624,108 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -716,4 +742,206 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WeeklyReport.xlsx
+++ b/WeeklyReport.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\GraduationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\GraduationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="09-01-2017 - 15-01-2017" sheetId="2" r:id="rId2"/>
     <sheet name="16-01-2017 - 22-01-2017" sheetId="3" r:id="rId3"/>
+    <sheet name="06-02-2017 - 12-02-2017" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>BÁO CÁO TIẾN ĐỘ</t>
   </si>
@@ -74,12 +75,30 @@
   </si>
   <si>
     <t>* Khó khăn: Vẫn chưa giao tiếp được với Module tích hợp vào với mạch Arduino</t>
+  </si>
+  <si>
+    <t>15/02/2017 - 11/02/2017</t>
+  </si>
+  <si>
+    <t>Đã sử dụng được Sim 808 để nhắn tin, lấy tọa độ hiện tại</t>
+  </si>
+  <si>
+    <t>Người thực hiện</t>
+  </si>
+  <si>
+    <t>15/02/2017 - 11/02/2018</t>
+  </si>
+  <si>
+    <t>Tìm hiểu cách viết server bằng C++</t>
+  </si>
+  <si>
+    <t>Dương Vũ Thái Cường</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,13 +181,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -187,10 +209,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,34 +508,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -554,94 +576,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -748,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -761,88 +783,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -944,4 +966,169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WeeklyReport.xlsx
+++ b/WeeklyReport.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="09-01-2017 - 15-01-2017" sheetId="2" r:id="rId2"/>
     <sheet name="16-01-2017 - 22-01-2017" sheetId="3" r:id="rId3"/>
     <sheet name="06-02-2017 - 12-02-2017" sheetId="4" r:id="rId4"/>
+    <sheet name="13-02-2017 - 19-02-2017" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>BÁO CÁO TIẾN ĐỘ</t>
   </si>
@@ -93,6 +94,21 @@
   </si>
   <si>
     <t>Dương Vũ Thái Cường</t>
+  </si>
+  <si>
+    <t>Tích hợp Module Sim808 với Arduino UNO</t>
+  </si>
+  <si>
+    <t>18/02/2017</t>
+  </si>
+  <si>
+    <t>19/02/2018</t>
+  </si>
+  <si>
+    <t>Đã tích hợp được Module Sim808 với Arduino UNO và chay thử chương trình gửi tin nhắn thành công</t>
+  </si>
+  <si>
+    <t>Tìm hiểu viết chương trình lấy về tọa độ (chưa hoàn thành)</t>
   </si>
 </sst>
 </file>
@@ -972,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,8 +1130,173 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:L6"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="M7:O7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:L7"/>
@@ -1124,11 +1305,12 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:L5"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:L6"/>
+    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>